--- a/artigos_ACM/SelecaoFase1_Lidia.xlsx
+++ b/artigos_ACM/SelecaoFase1_Lidia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Mestrado\slr\artigos_ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C55BEFB-5116-448D-A21E-4506F6061DAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9AFDE8-F5FC-4CEA-BEDE-6318D84DF2FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A65388C-AACB-4B7E-B60C-47E18581C927}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -599,6 +599,21 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -613,21 +628,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,20 +683,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E014B79F-7740-4FF9-BF12-E1725900A390}" name="baseACM" displayName="baseACM" ref="A1:H48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H48" xr:uid="{9D2301D5-0436-4221-A041-1426CCDF1FE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E014B79F-7740-4FF9-BF12-E1725900A390}" name="baseACM" displayName="baseACM" ref="A1:H48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:H48" xr:uid="{9D2301D5-0436-4221-A041-1426CCDF1FE1}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2005"/>
+        <filter val="2007"/>
+        <filter val="2008"/>
+        <filter val="2009"/>
+        <filter val="2010"/>
+        <filter val="2011"/>
+        <filter val="2012"/>
+        <filter val="2013"/>
+        <filter val="2014"/>
+        <filter val="2015"/>
+        <filter val="2016"/>
+        <filter val="2017"/>
+        <filter val="2018"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
     <sortCondition ref="C1:C48"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D96AD0BF-31CE-44DD-A8D2-8C2F004C399C}" uniqueName="1" name="type" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{EAF87C2C-0D08-4BF0-86FA-54E74D50598A}" uniqueName="3" name="author" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00C3677F-6799-48F0-93F5-9598F05FB9B0}" uniqueName="7" name="title" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9ADEC878-3C57-49A5-990D-787150F8E68F}" uniqueName="11" name="keywords" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D96AD0BF-31CE-44DD-A8D2-8C2F004C399C}" uniqueName="1" name="type" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{EAF87C2C-0D08-4BF0-86FA-54E74D50598A}" uniqueName="3" name="author" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00C3677F-6799-48F0-93F5-9598F05FB9B0}" uniqueName="7" name="title" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{9ADEC878-3C57-49A5-990D-787150F8E68F}" uniqueName="11" name="keywords" queryTableFieldId="11" dataDxfId="1"/>
     <tableColumn id="19" xr3:uid="{E2DEC598-AFB0-4F66-9372-AE06332D10FA}" uniqueName="19" name="year" queryTableFieldId="19"/>
     <tableColumn id="2" xr3:uid="{B3A26550-7634-4DB6-B1BC-B579D463B2AC}" uniqueName="2" name="Critério de exclusão" queryTableFieldId="29"/>
     <tableColumn id="4" xr3:uid="{2C357015-A1D5-4102-9849-CDEAB1F2CD14}" uniqueName="4" name="Status - Etapa 1" queryTableFieldId="30"/>
-    <tableColumn id="26" xr3:uid="{5CB43868-E30F-42EF-8106-B4C6157DF4DA}" uniqueName="26" name="publisher" queryTableFieldId="26" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{5CB43868-E30F-42EF-8106-B4C6157DF4DA}" uniqueName="26" name="publisher" queryTableFieldId="26" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1001,18 +1019,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271E0F0-47A0-43BD-A095-D2B08052F9FE}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.7109375" hidden="1" customWidth="1"/>
   </cols>
@@ -1062,6 +1080,9 @@
       <c r="E2">
         <v>2017</v>
       </c>
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,6 +1106,9 @@
       <c r="E3">
         <v>2018</v>
       </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,6 +1132,9 @@
       <c r="E4">
         <v>2013</v>
       </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1154,6 +1181,9 @@
       <c r="E6">
         <v>2017</v>
       </c>
+      <c r="G6" t="s">
+        <v>149</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1177,6 +1207,9 @@
       <c r="E7">
         <v>2014</v>
       </c>
+      <c r="G7" t="s">
+        <v>149</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1200,6 +1233,9 @@
       <c r="E8">
         <v>2012</v>
       </c>
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1243,6 +1279,9 @@
       <c r="E10">
         <v>2018</v>
       </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1330,6 +1369,9 @@
       <c r="E14">
         <v>2010</v>
       </c>
+      <c r="G14" t="s">
+        <v>149</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1350,6 +1392,9 @@
       <c r="E15">
         <v>2016</v>
       </c>
+      <c r="G15" t="s">
+        <v>149</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1370,6 +1415,9 @@
       <c r="E16">
         <v>2011</v>
       </c>
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1490,6 +1538,9 @@
       <c r="E22">
         <v>2014</v>
       </c>
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1670,6 +1721,9 @@
       <c r="E31">
         <v>2013</v>
       </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1690,6 +1744,9 @@
       <c r="E32">
         <v>2017</v>
       </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1730,11 +1787,14 @@
       <c r="E34">
         <v>2015</v>
       </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
       <c r="H34" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1776,6 +1836,9 @@
       <c r="E36">
         <v>2010</v>
       </c>
+      <c r="G36" t="s">
+        <v>149</v>
+      </c>
       <c r="H36" s="1" t="s">
         <v>48</v>
       </c>
@@ -1876,6 +1939,9 @@
       <c r="E41">
         <v>2009</v>
       </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
       <c r="H41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1975,6 +2041,9 @@
       </c>
       <c r="E46">
         <v>2010</v>
+      </c>
+      <c r="G46" t="s">
+        <v>150</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>11</v>

--- a/artigos_ACM/SelecaoFase1_Lidia.xlsx
+++ b/artigos_ACM/SelecaoFase1_Lidia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Mestrado\slr\artigos_ACM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Mestrado2\slr\artigos_ACM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9AFDE8-F5FC-4CEA-BEDE-6318D84DF2FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893D9854-9FA6-43B7-8DCA-8BD89A931D39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A65388C-AACB-4B7E-B60C-47E18581C927}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -1019,20 +1019,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271E0F0-47A0-43BD-A095-D2B08052F9FE}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1158,6 +1158,12 @@
       <c r="E5">
         <v>2008</v>
       </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,6 +1239,9 @@
       <c r="E8">
         <v>2012</v>
       </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
       <c r="G8" t="s">
         <v>150</v>
       </c>
@@ -1256,6 +1265,12 @@
       <c r="E9">
         <v>2011</v>
       </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1305,6 +1320,12 @@
       <c r="E11">
         <v>2011</v>
       </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1415,6 +1436,9 @@
       <c r="E16">
         <v>2011</v>
       </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
       <c r="G16" t="s">
         <v>150</v>
       </c>
@@ -1438,6 +1462,9 @@
       <c r="E17">
         <v>2007</v>
       </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1518,6 +1545,12 @@
       <c r="E21">
         <v>2005</v>
       </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>150</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1561,6 +1594,12 @@
       <c r="E23">
         <v>2010</v>
       </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>74</v>
       </c>
@@ -1661,6 +1700,12 @@
       <c r="E28">
         <v>2014</v>
       </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1701,6 +1746,12 @@
       <c r="E30">
         <v>2013</v>
       </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
       <c r="H30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1767,6 +1818,12 @@
       <c r="E33">
         <v>2012</v>
       </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
       <c r="H33" s="1" t="s">
         <v>11</v>
       </c>
@@ -1859,6 +1916,12 @@
       <c r="E37">
         <v>2012</v>
       </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>150</v>
+      </c>
       <c r="H37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1879,6 +1942,12 @@
       <c r="E38">
         <v>2014</v>
       </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>150</v>
+      </c>
       <c r="H38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1899,6 +1968,12 @@
       <c r="E39">
         <v>2011</v>
       </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>150</v>
+      </c>
       <c r="H39" s="1" t="s">
         <v>11</v>
       </c>
@@ -1982,6 +2057,12 @@
       <c r="E43">
         <v>2012</v>
       </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>150</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>11</v>
       </c>
@@ -2002,6 +2083,12 @@
       <c r="E44">
         <v>2014</v>
       </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>150</v>
+      </c>
       <c r="H44" s="1" t="s">
         <v>135</v>
       </c>
@@ -2022,6 +2109,12 @@
       <c r="E45">
         <v>2012</v>
       </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>150</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>11</v>
       </c>
@@ -2042,6 +2135,9 @@
       <c r="E46">
         <v>2010</v>
       </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
       <c r="G46" t="s">
         <v>150</v>
       </c>
@@ -2064,6 +2160,12 @@
       </c>
       <c r="E47">
         <v>2011</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>150</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
